--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_9_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_9_sawtooth_0.5_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04165622711645967</v>
+        <v>0.0105869880954601</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08769732024517825</v>
+        <v>0.0344019173187577</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.369148751820911</v>
+        <v>5.009101870520533</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[-0.02280312178783106, 8.761100625429654]</t>
+          <t>[0.6019064606217128, 9.416297280419354]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.05118923624566363</v>
+        <v>0.02612383847921929</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05118923624566363</v>
+        <v>0.02612383847921929</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.270473905956233</v>
+        <v>-0.6918422260157699</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.7170531058073886, 0.17610529389492324]</t>
+          <t>[-1.471737098979002, 0.08805264694746207]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0848242502340657</v>
+        <v>0.08176146630394387</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0848242502340657</v>
+        <v>0.08176146630394387</v>
       </c>
       <c r="S2" t="n">
-        <v>14.59331706816307</v>
+        <v>13.16713757656642</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.18290316410401, 17.00373097222213]</t>
+          <t>[10.823959610816654, 15.510315542316178]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.255235235235361</v>
+        <v>2.86176176176183</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7284484484484652</v>
+        <v>-0.364224224224234</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.23891891891919</v>
+        <v>6.087747747747894</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.76000000000012</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.749190105610921e-05</v>
+        <v>0.000110218450380617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003463487576389784</v>
+        <v>0.001455160011209773</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.807543361722852</v>
+        <v>6.494567474846266</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.3027700032230527, 10.31231672022265]</t>
+          <t>[2.515576838124659, 10.473558111567874]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001663184772138226</v>
+        <v>0.001483482819091497</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0003326369544276453</v>
+        <v>0.002966965638182995</v>
       </c>
       <c r="O3" t="n">
-        <v>1.779921363295118</v>
+        <v>0.7107106503616558</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1635528346628865, 2.39628989192735]</t>
+          <t>[0.1446579199851179, 1.2767633807381937]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.751832844400838e-08</v>
+        <v>0.01408276315501844</v>
       </c>
       <c r="R3" t="n">
-        <v>7.503665688801675e-08</v>
+        <v>0.02816552631003688</v>
       </c>
       <c r="S3" t="n">
-        <v>14.09190002417039</v>
+        <v>14.37455453811905</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.067659401827473, 16.116140646513312]</t>
+          <t>[12.282422744892955, 16.46668633134515]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.31247247247256</v>
+        <v>19.85739739739745</v>
       </c>
       <c r="X3" t="n">
-        <v>14.07975975975983</v>
+        <v>17.84028028028033</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.54518518518528</v>
+        <v>21.87451451451457</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_9_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_9_sawtooth_0.5_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0105869880954601</v>
+        <v>7.746133456332238e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0344019173187577</v>
+        <v>0.0003096876310770824</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.009101870520533</v>
+        <v>8.093041642263941</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.6019064606217128, 9.416297280419354]</t>
+          <t>[3.805587608162039, 12.380495676365843]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.02612383847921929</v>
+        <v>0.0002592097812257332</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02612383847921929</v>
+        <v>0.0005184195624514665</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6918422260157699</v>
+        <v>-1.081789662497386</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.471737098979002, 0.08805264694746207]</t>
+          <t>[-1.6604213424378491, -0.5031579825569237]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.08176146630394387</v>
+        <v>0.0002954537855086592</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08176146630394387</v>
+        <v>0.0005550728984538011</v>
       </c>
       <c r="S2" t="n">
-        <v>13.16713757656642</v>
+        <v>14.78376144792287</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.823959610816654, 15.510315542316178]</t>
+          <t>[12.500607475064278, 17.066915420781466]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.86176176176183</v>
+        <v>4.474754754754862</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.364224224224234</v>
+        <v>2.08128128128133</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.087747747747894</v>
+        <v>6.868228228228395</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.39000000000006</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000110218450380617</v>
+        <v>0.0003467741964094939</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001455160011209773</v>
+        <v>0.001558652775334247</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.494567474846266</v>
+        <v>6.557726350107131</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.515576838124659, 10.473558111567874]</t>
+          <t>[2.543986749985109, 10.571465950229154]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001483482819091497</v>
+        <v>0.001467909542000712</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002966965638182995</v>
+        <v>0.001467909542000712</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7107106503616558</v>
+        <v>1.251605481610349</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.1446579199851179, 1.2767633807381937]</t>
+          <t>[0.5471843060306547, 1.9560266571900424]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.01408276315501844</v>
+        <v>0.0005550728984538011</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02816552631003688</v>
+        <v>0.0005550728984538011</v>
       </c>
       <c r="S3" t="n">
-        <v>14.37455453811905</v>
+        <v>14.47727668489333</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.282422744892955, 16.46668633134515]</t>
+          <t>[12.235791980562993, 16.718761389223673]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.85739739739745</v>
+        <v>17.91391391391396</v>
       </c>
       <c r="X3" t="n">
-        <v>17.84028028028033</v>
+        <v>15.405965965966</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.87451451451457</v>
+        <v>20.42186186186191</v>
       </c>
     </row>
   </sheetData>
